--- a/data/数据库设计.xlsx
+++ b/data/数据库设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaiMo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1552144-BF54-43C5-A1D2-EE38E19CF80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C231ADF-3772-4FE1-96CC-AD8A35FD519C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17895" yWindow="2580" windowWidth="7485" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="88">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1468,93 +1468,107 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D69" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>81</v>
       </c>
     </row>

--- a/data/数据库设计.xlsx
+++ b/data/数据库设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaiMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\idea\MyCampusMyHome\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C231ADF-3772-4FE1-96CC-AD8A35FD519C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78841FF-99B6-4F34-815A-C02A4C159E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17895" yWindow="2580" windowWidth="7485" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>54</v>

--- a/data/数据库设计.xlsx
+++ b/data/数据库设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\idea\MyCampusMyHome\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78841FF-99B6-4F34-815A-C02A4C159E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFD25F3-8843-4493-BB9E-D39EB36205B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="98">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,42 @@
   </si>
   <si>
     <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寝室调换记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调换时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nowrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有寝室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调换寝室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,16 +850,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
@@ -1576,6 +1612,124 @@
         <v>81</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
